--- a/TestCase/TestCaseTable/U201517086-TestCase.xlsx
+++ b/TestCase/TestCaseTable/U201517086-TestCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85366\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\85366\Desktop\WordCountPro\WordCountPro\TestCase\TestCaseTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="87">
   <si>
     <r>
       <t xml:space="preserve">Test Case ID </t>
@@ -51,21 +51,6 @@
         <charset val="134"/>
       </rPr>
       <t>测试用例标题</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Test Criticality</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重要级别</t>
     </r>
   </si>
   <si>
@@ -278,18 +263,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test.txt</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -368,14 +341,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一般重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -389,10 +354,6 @@
   </si>
   <si>
     <t>测试文本处理是否正确</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -470,10 +431,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>比较重要</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>c 3
 b 2
 a 1</t>
@@ -539,6 +496,39 @@
   </si>
   <si>
     <t>outputtest2.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Criticality高级别</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑盒测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白盒测试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -999,40 +989,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="3"/>
@@ -1167,37 +1157,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1205,37 +1195,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1243,37 +1233,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1281,37 +1271,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:140" ht="30" x14ac:dyDescent="0.25">
@@ -1319,33 +1309,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1353,33 +1345,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1387,33 +1381,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1421,33 +1417,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1455,33 +1453,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1489,33 +1489,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1523,33 +1525,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1557,33 +1561,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1591,33 +1597,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1625,33 +1633,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:140" ht="28.5" x14ac:dyDescent="0.25">
@@ -1659,33 +1669,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -1693,33 +1705,35 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -1727,33 +1741,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
@@ -1761,33 +1777,35 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1795,33 +1813,35 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1829,33 +1849,35 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
